--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>背刺</t>
-  </si>
-  <si>
-    <t>对目标造成伤害100</t>
   </si>
   <si>
     <t>对目标造成伤害</t>
@@ -401,7 +398,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -476,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1979,11 +1973,11 @@
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="25">
-        <v>3</v>
+      <c r="C10" s="20">
+        <v>4</v>
       </c>
       <c r="D10" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s" s="21">
         <v>64</v>
@@ -1991,15 +1985,9 @@
       <c r="F10" t="s" s="21">
         <v>65</v>
       </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
-        <v>1</v>
-      </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2007,32 +1995,6 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="20">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="21">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -154,7 +154,7 @@
     <t>map[string]int</t>
   </si>
   <si>
-    <t>interface</t>
+    <t>interface{}</t>
   </si>
   <si>
     <t>导出字段默认值</t>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -145,13 +145,19 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>[]int</t>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>[]string</t>
   </si>
   <si>
-    <t>map[string]int</t>
+    <t>map[string]int32</t>
   </si>
   <si>
     <t>interface{}</t>
@@ -1806,46 +1812,46 @@
         <v>42</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="L6" t="s" s="10">
-        <v>34</v>
-      </c>
       <c r="M6" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P6" s="13"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14">
         <v>0</v>
@@ -1854,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
@@ -1881,7 +1887,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" t="s" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
@@ -1894,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s" s="16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s" s="17">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
@@ -1912,22 +1918,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="16">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="16">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s" s="18">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s" s="18">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s" s="19">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
@@ -1940,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="20">
         <v>1</v>
@@ -1958,22 +1964,22 @@
         <v>10</v>
       </c>
       <c r="K9" t="s" s="21">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
       </c>
       <c r="M9" t="s" s="21">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s" s="23">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s" s="23">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s" s="24">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1986,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s" s="21">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10" s="20">
         <v>1</v>
@@ -2018,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s" s="21">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Effect</t>
   </si>
   <si>
+    <t>TestField</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>显示特效</t>
   </si>
   <si>
+    <t>测试字段</t>
+  </si>
+  <si>
     <t>客户端导出字段类型</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
   </si>
   <si>
     <t>默认特效名</t>
+  </si>
+  <si>
+    <t>test_field</t>
   </si>
   <si>
     <t>酋长的祝福</t>
@@ -278,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -396,6 +405,17 @@
         <color indexed="11"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -407,7 +427,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -444,28 +464,34 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1598,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1618,8 +1644,8 @@
     <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
     <col min="15" max="15" width="31.1719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3516" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.3516" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1641,6 +1667,8 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" ht="57" customHeight="1">
       <c r="A2" s="5"/>
@@ -1663,6 +1691,8 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="4"/>
@@ -1711,299 +1741,323 @@
       <c r="P3" t="s" s="11">
         <v>17</v>
       </c>
+      <c r="Q3" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" t="s" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s" s="11">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" t="s" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="L5" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="L5" s="13"/>
       <c r="M5" t="s" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s" s="11">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" t="s" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="L6" t="s" s="10">
-        <v>43</v>
-      </c>
       <c r="M6" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="P6" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="C7" s="14">
+        <v>51</v>
+      </c>
+      <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="G7" s="14">
+        <v>53</v>
+      </c>
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="16">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" t="s" s="11">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" t="s" s="16">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s" s="17">
-        <v>54</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="E8" t="s" s="18">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s" s="19">
+        <v>57</v>
+      </c>
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="17">
         <v>10</v>
       </c>
-      <c r="K8" t="s" s="16">
-        <v>55</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="K8" t="s" s="18">
+        <v>58</v>
+      </c>
+      <c r="L8" s="17">
         <v>0</v>
       </c>
-      <c r="M8" t="s" s="16">
-        <v>56</v>
-      </c>
-      <c r="N8" t="s" s="18">
-        <v>57</v>
-      </c>
-      <c r="O8" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="P8" t="s" s="19">
+      <c r="M8" t="s" s="18">
         <v>59</v>
       </c>
+      <c r="N8" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s" s="21">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" t="s" s="21">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s" s="22">
+      <c r="E9" t="s" s="23">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>64</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>2</v>
+      </c>
+      <c r="J9" s="22">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s" s="25">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s" s="25">
         <v>61</v>
       </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>2</v>
-      </c>
-      <c r="J9" s="20">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s" s="21">
-        <v>62</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s" s="21">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s" s="23">
-        <v>64</v>
-      </c>
-      <c r="O9" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s" s="24">
-        <v>65</v>
-      </c>
+      <c r="P9" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="25">
+      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s" s="21">
-        <v>67</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="E10" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="G10" s="22">
         <v>1</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="22">
         <v>1</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="22">
         <v>1</v>
       </c>
       <c r="J10" s="4"/>
@@ -2013,21 +2067,23 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>4</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="22">
         <v>4</v>
       </c>
-      <c r="E11" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>68</v>
+      <c r="E11" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s" s="23">
+        <v>71</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2039,6 +2095,8 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -167,21 +167,6 @@
   </si>
   <si>
     <t>interface{}</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认buff名</t>
-  </si>
-  <si>
-    <t>默认效果描述</t>
-  </si>
-  <si>
-    <t>默认特效名</t>
-  </si>
-  <si>
-    <t>test_field</t>
   </si>
   <si>
     <t>酋长的祝福</t>
@@ -427,7 +412,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -474,9 +459,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1624,7 +1606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1894,172 +1876,154 @@
       </c>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="27" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="4"/>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s" s="10">
+      <c r="F7" t="s" s="18">
         <v>52</v>
       </c>
-      <c r="F7" t="s" s="10">
-        <v>53</v>
-      </c>
       <c r="G7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="16">
         <v>0</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K7" t="s" s="17">
+        <v>53</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" t="s" s="11">
+      <c r="M7" t="s" s="17">
         <v>54</v>
       </c>
-      <c r="Q7" t="s" s="12">
+      <c r="N7" t="s" s="19">
         <v>55</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="O7" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
-    <row r="8" ht="27" customHeight="1">
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="17">
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s" s="22">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="18">
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s" s="22">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s" s="24">
         <v>56</v>
       </c>
-      <c r="F8" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>10</v>
-      </c>
-      <c r="J8" s="17">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s" s="18">
-        <v>59</v>
-      </c>
-      <c r="N8" t="s" s="20">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s" s="20">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s" s="21">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="P8" t="s" s="25">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
-    <row r="9" ht="29" customHeight="1">
+    <row r="9" ht="14" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="22">
-        <v>2</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s" s="24">
+      <c r="C9" s="26">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="22">
         <v>64</v>
       </c>
-      <c r="G9" s="22">
+      <c r="F9" t="s" s="22">
+        <v>65</v>
+      </c>
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <v>2</v>
-      </c>
-      <c r="J9" s="22">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s" s="23">
-        <v>65</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s" s="23">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s" s="25">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s" s="25">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="27">
-        <v>3</v>
-      </c>
-      <c r="D10" s="22">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s" s="23">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s" s="23">
-        <v>70</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22">
-        <v>1</v>
-      </c>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="22">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="22">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2070,34 +2034,6 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="22">
-        <v>4</v>
-      </c>
-      <c r="D11" s="22">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="23">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s" s="23">
-        <v>71</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -28,10 +28,10 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>BuffType</t>
+    <t>*Id</t>
+  </si>
+  <si>
+    <t>*BuffType</t>
   </si>
   <si>
     <t>Name</t>
@@ -492,7 +492,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,7 +1928,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="21">
         <v>2</v>
@@ -1976,10 +1976,10 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s" s="22">
         <v>64</v>
@@ -2010,10 +2010,10 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s" s="22">
         <v>64</v>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -163,7 +163,7 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>map[string]int32</t>
+    <t>map[string]int</t>
   </si>
   <si>
     <t>interface{}</t>
@@ -1624,7 +1624,7 @@
     <col min="11" max="11" width="10.1719" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.85156" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8516" style="1" customWidth="1"/>
     <col min="15" max="15" width="31.1719" style="1" customWidth="1"/>
     <col min="16" max="18" width="10.3516" style="1" customWidth="1"/>
     <col min="19" max="16384" width="6" style="1" customWidth="1"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>对目标造成伤害100</t>
+  </si>
+  <si>
+    <t>Armor:123,DmgInc:8880</t>
   </si>
   <si>
     <t>对目标造成伤害</t>
@@ -2000,7 +2003,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" t="s" s="22">
+        <v>66</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -2019,7 +2024,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s" s="22">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -28,43 +28,43 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>*Id</t>
-  </si>
-  <si>
-    <t>*BuffType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>NextLevel</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>LifeTime</t>
-  </si>
-  <si>
-    <t>BuffOverlap</t>
-  </si>
-  <si>
-    <t>MaxLimit</t>
-  </si>
-  <si>
-    <t>Params_StrValue</t>
-  </si>
-  <si>
-    <t>Params_Formula</t>
-  </si>
-  <si>
-    <t>Params_NumValue</t>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>*buffType</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>nextLevel</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>lifeTime</t>
+  </si>
+  <si>
+    <t>buffOverlap</t>
+  </si>
+  <si>
+    <t>maxLimit</t>
+  </si>
+  <si>
+    <t>params_StrValue</t>
+  </si>
+  <si>
+    <t>params_Formula</t>
+  </si>
+  <si>
+    <t>params_NumValue</t>
   </si>
   <si>
     <t>Effect</t>
@@ -166,7 +166,7 @@
     <t>map[string]int</t>
   </si>
   <si>
-    <t>interface{}</t>
+    <t>map[string]string</t>
   </si>
   <si>
     <t>酋长的祝福</t>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="21000" windowHeight="10845"/>
   </bookViews>
   <sheets>
-    <sheet name="BuffProto" sheetId="1" r:id="rId4"/>
+    <sheet name="BuffProto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -224,38 +227,185 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,17 +415,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -370,10 +706,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,133 +740,427 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -650,7 +1286,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -659,7 +1295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -668,7 +1304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -742,13 +1378,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -768,8 +1403,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,8 +1432,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,8 +1457,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,8 +1482,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,8 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,8 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,8 +1557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,8 +1582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,8 +1607,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,8 +1632,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,9 +1645,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1037,13 +1668,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1063,8 +1693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,8 +1718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,8 +1743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,8 +1768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,8 +1793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,8 +1818,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,8 +1843,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,8 +1868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,8 +1893,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,8 +1918,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,9 +1931,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1324,8 +1950,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1345,8 +1969,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,8 +1998,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,8 +2023,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,8 +2048,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,8 +2073,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,8 +2098,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,8 +2123,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,8 +2148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,8 +2173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,8 +2198,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1597,9 +2211,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1608,33 +2228,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.35156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.175" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.35" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.675" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.675" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.175" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.1719" style="1" customWidth="1"/>
-    <col min="16" max="18" width="10.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.175" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.35" style="1" customWidth="1"/>
     <col min="19" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="15.75" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1655,7 +2278,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" ht="57" customHeight="1">
+    <row r="2" ht="57" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -1666,10 +2289,10 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6"/>
@@ -1679,331 +2302,331 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" ht="14" customHeight="1">
+    <row r="3" ht="14" customHeight="1" spans="1:18">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s" s="10">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s" s="10">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="10">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="10">
+      <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s" s="10">
+      <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s" s="10">
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s" s="10">
+      <c r="N3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s" s="10">
+      <c r="O3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s" s="11">
+      <c r="P3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" t="s" s="12">
+      <c r="Q3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="25"/>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row r="4" ht="14" customHeight="1" spans="1:18">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s" s="10">
+      <c r="I4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s" s="10">
+      <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s" s="10">
+      <c r="K4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s" s="10">
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s" s="10">
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N4" t="s" s="10">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s" s="10">
+      <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s" s="11">
+      <c r="P4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" t="s" s="12">
+      <c r="Q4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="25"/>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" ht="14" customHeight="1" spans="1:18">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="10">
+      <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s" s="10">
+      <c r="I5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="10">
+      <c r="J5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s" s="10">
+      <c r="K5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" t="s" s="10">
+      <c r="L5" s="9"/>
+      <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" t="s" s="10">
+      <c r="N5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O5" t="s" s="10">
+      <c r="O5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P5" t="s" s="11">
+      <c r="P5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="12">
+      <c r="Q5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="25"/>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" ht="14" customHeight="1" spans="1:18">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" t="s" s="10">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s" s="10">
+      <c r="H6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s" s="10">
+      <c r="I6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s" s="10">
+      <c r="J6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K6" t="s" s="10">
+      <c r="K6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s" s="10">
+      <c r="L6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s" s="10">
+      <c r="M6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N6" t="s" s="10">
+      <c r="N6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O6" t="s" s="10">
+      <c r="O6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" t="s" s="12">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="15"/>
+      <c r="R6" s="26"/>
     </row>
-    <row r="7" ht="27" customHeight="1">
+    <row r="7" ht="27" customHeight="1" spans="1:18">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" t="s" s="17">
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s" s="18">
+      <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="10">
         <v>10</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="10">
         <v>10</v>
       </c>
-      <c r="K7" t="s" s="17">
+      <c r="K7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" t="s" s="17">
+      <c r="M7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N7" t="s" s="19">
+      <c r="N7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O7" t="s" s="19">
+      <c r="O7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="P7" t="s" s="20">
+      <c r="P7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row r="8" ht="29" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="21">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="22">
+      <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s" s="23">
+      <c r="F8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="13">
         <v>2</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="13">
         <v>10</v>
       </c>
-      <c r="K8" t="s" s="22">
+      <c r="K8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" t="s" s="22">
+      <c r="M8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N8" t="s" s="24">
+      <c r="N8" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O8" t="s" s="24">
+      <c r="O8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P8" t="s" s="25">
+      <c r="P8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" ht="14" customHeight="1" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="26">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" t="s" s="22">
+      <c r="E9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s" s="22">
+      <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="13">
         <v>1</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" t="s" s="22">
+      <c r="N9" s="14" t="s">
         <v>66</v>
       </c>
       <c r="O9" s="4"/>
@@ -2011,24 +2634,30 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" ht="14" customHeight="1">
+    <row r="10" ht="14" customHeight="1" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="21">
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="E10" t="s" s="22">
+      <c r="E10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s" s="22">
+      <c r="F10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>34</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2041,7 +2670,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>map[string]string</t>
+  </si>
+  <si>
+    <t>Interface{}</t>
   </si>
   <si>
     <t>酋长的祝福</t>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" t="s" s="12">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R6" s="15"/>
     </row>
@@ -1889,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s" s="18">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -1907,22 +1910,22 @@
         <v>10</v>
       </c>
       <c r="K7" t="s" s="17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
       </c>
       <c r="M7" t="s" s="17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s" s="19">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s" s="20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
@@ -1937,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s" s="22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s" s="23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -1955,22 +1958,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="22">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" s="21">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s" s="24">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s" s="24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s" s="25">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1985,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -2004,7 +2007,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="22">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2021,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s" s="22">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>

--- a/buff.xlsx
+++ b/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -28,10 +28,10 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>*buffType</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>buffType</t>
   </si>
   <si>
     <t>name</t>
@@ -76,9 +76,6 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>buff类型</t>
   </si>
   <si>
@@ -121,37 +118,22 @@
     <t>测试字段</t>
   </si>
   <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>导出字段控制</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Array&lt;int32&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>Map&lt;string,int32&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;Array&lt;string&gt;&gt;</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
   <si>
     <t>float32</t>
@@ -1740,145 +1722,131 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="E4" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="F4" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="G4" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="H4" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="I4" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="I4" t="s" s="10">
+      <c r="J4" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="J4" t="s" s="10">
+      <c r="K4" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="K4" t="s" s="10">
+      <c r="L4" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="L4" t="s" s="10">
+      <c r="M4" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="M4" t="s" s="10">
+      <c r="N4" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="N4" t="s" s="10">
+      <c r="O4" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="O4" t="s" s="10">
+      <c r="P4" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="P4" t="s" s="11">
+      <c r="Q4" t="s" s="12">
         <v>33</v>
-      </c>
-      <c r="Q4" t="s" s="12">
-        <v>34</v>
       </c>
       <c r="R4" s="12"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="D5" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="F5" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="E5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="Q5" t="s" s="12">
-        <v>43</v>
-      </c>
+      <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s" s="10">
         <v>44</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s" s="10">
-        <v>50</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" t="s" s="12">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R6" s="15"/>
     </row>
@@ -1892,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="18">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -1910,22 +1878,22 @@
         <v>10</v>
       </c>
       <c r="K7" t="s" s="17">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
       </c>
       <c r="M7" t="s" s="17">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s" s="19">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s" s="19">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s" s="20">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
@@ -1940,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s" s="22">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s" s="23">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -1958,22 +1926,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="22">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L8" s="21">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="22">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s" s="24">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s" s="24">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s" s="25">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1988,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s" s="22">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -2007,7 +1975,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="22">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2024,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s" s="22">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s" s="22">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
